--- a/src/Pred_actual_lasso.xlsx
+++ b/src/Pred_actual_lasso.xlsx
@@ -1,71 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinckley/Desktop/Comp/COMP Github repo/Predicting-NBA-contracts/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3698D66-6E8C-9A4E-9C0C-AF12811866D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Actual Ave Salary</t>
-  </si>
-  <si>
-    <t>Predicted Ave Salary</t>
-  </si>
-  <si>
-    <t>Player number</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,1370 +420,1375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Ave Salary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Ave Salary</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Player number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50203930</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9905735.520423938</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>43031940</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20196044.76418436</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>50203930</v>
-      </c>
-      <c r="B2">
-        <v>9905735.5204239376</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>43031940</v>
-      </c>
-      <c r="B3">
-        <v>20196044.764184359</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>34320000</v>
       </c>
-      <c r="B4">
-        <v>2714695.8206235669</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>2714695.820623567</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>33232282</v>
       </c>
-      <c r="B5">
-        <v>27360841.738415141</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>27360841.73841514</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>26000000</v>
       </c>
-      <c r="B6">
-        <v>17066158.707059778</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>17066158.70705978</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>25000000</v>
       </c>
-      <c r="B7">
-        <v>15912177.126336429</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>15912177.12633643</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>17737500</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>2483234.250261554</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>17500000</v>
       </c>
-      <c r="B9">
-        <v>9319997.1548723988</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>9319997.154872399</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>16500000</v>
       </c>
-      <c r="B10">
-        <v>6968296.1174763786</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>6968296.117476379</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>15000000</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>16497915.49188797</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>14500000</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>11947246.81074916</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12500000</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>3138953.217332012</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>12144552</v>
       </c>
-      <c r="B14">
-        <v>12532985.176300701</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="n">
+        <v>12532985.1763007</v>
+      </c>
+      <c r="C14" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>11750000</v>
       </c>
-      <c r="B15">
-        <v>10526464.186734941</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>10526464.18673494</v>
+      </c>
+      <c r="C15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>11277084</v>
       </c>
-      <c r="B16">
-        <v>8432467.4452705234</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="n">
+        <v>8432467.445270523</v>
+      </c>
+      <c r="C16" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>11014500</v>
       </c>
-      <c r="B17">
-        <v>8908861.1209487505</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="n">
+        <v>8908861.120948751</v>
+      </c>
+      <c r="C17" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>10300000</v>
       </c>
-      <c r="B18">
-        <v>15225841.646101451</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="n">
+        <v>15225841.64610145</v>
+      </c>
+      <c r="C18" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>9709025</v>
       </c>
-      <c r="B19">
-        <v>13936272.649935201</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="n">
+        <v>13936272.6499352</v>
+      </c>
+      <c r="C19" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>9100000</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>7938578.619212565</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>9000000</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>11829154.54568599</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>8715000</v>
       </c>
-      <c r="B22">
-        <v>11155940.428235799</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="n">
+        <v>11155940.4282358</v>
+      </c>
+      <c r="C22" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>8625000</v>
       </c>
-      <c r="B23">
-        <v>4415400.8507134672</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="n">
+        <v>4415400.850713467</v>
+      </c>
+      <c r="C23" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>8000000</v>
       </c>
-      <c r="B24">
-        <v>11129697.702666201</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="n">
+        <v>11129697.7026662</v>
+      </c>
+      <c r="C24" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>8000000</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>3733439.158073416</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>7840000</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>13831301.74765682</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>7500000</v>
       </c>
-      <c r="B27">
-        <v>4275439.6476756306</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="n">
+        <v>4275439.647675631</v>
+      </c>
+      <c r="C27" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>6876811</v>
       </c>
-      <c r="B28">
-        <v>11282780.268488839</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="n">
+        <v>11282780.26848884</v>
+      </c>
+      <c r="C28" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>6802950</v>
       </c>
-      <c r="B29">
-        <v>7449063.5807495397</v>
-      </c>
-      <c r="C29">
+      <c r="B29" t="n">
+        <v>7449063.58074954</v>
+      </c>
+      <c r="C29" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>6640975</v>
       </c>
-      <c r="B30">
-        <v>3401031.3008585521</v>
-      </c>
-      <c r="C30">
+      <c r="B30" t="n">
+        <v>3401031.300858552</v>
+      </c>
+      <c r="C30" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>6640975</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>15151487.2569876</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>6640975</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>2037107.915578448</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>6640975</v>
       </c>
-      <c r="B33">
-        <v>8414972.2948907949</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="n">
+        <v>8414972.294890795</v>
+      </c>
+      <c r="C33" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>6479000</v>
       </c>
-      <c r="B34">
-        <v>11422741.471526669</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="n">
+        <v>11422741.47152667</v>
+      </c>
+      <c r="C34" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>6479000</v>
       </c>
-      <c r="B35">
-        <v>2631593.8563198522</v>
-      </c>
-      <c r="C35">
+      <c r="B35" t="n">
+        <v>2631593.856319852</v>
+      </c>
+      <c r="C35" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>6150000</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>6710242.649375366</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>6146342</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>16169881.42226804</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>5734280</v>
       </c>
-      <c r="B38">
-        <v>10307774.806988319</v>
-      </c>
-      <c r="C38">
+      <c r="B38" t="n">
+        <v>10307774.80698832</v>
+      </c>
+      <c r="C38" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>5043773</v>
       </c>
-      <c r="B39">
-        <v>5097362.5433535194</v>
-      </c>
-      <c r="C39">
+      <c r="B39" t="n">
+        <v>5097362.543353519</v>
+      </c>
+      <c r="C39" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>4612500</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>5595625.15700641</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>4512000</v>
       </c>
-      <c r="B41">
-        <v>2719069.6082184999</v>
-      </c>
-      <c r="C41">
+      <c r="B41" t="n">
+        <v>2719069.6082185</v>
+      </c>
+      <c r="C41" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>4207625</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>5438168.803588843</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>3666667</v>
       </c>
-      <c r="B43">
-        <v>8804239.3908397779</v>
-      </c>
-      <c r="C43">
+      <c r="B43" t="n">
+        <v>8804239.390839778</v>
+      </c>
+      <c r="C43" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>3500000</v>
       </c>
-      <c r="B44">
-        <v>4708095.4474045346</v>
-      </c>
-      <c r="C44">
+      <c r="B44" t="n">
+        <v>4708095.447404535</v>
+      </c>
+      <c r="C44" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>3280000</v>
       </c>
-      <c r="B45">
-        <v>4961775.1279106149</v>
-      </c>
-      <c r="C45">
+      <c r="B45" t="n">
+        <v>4961775.127910615</v>
+      </c>
+      <c r="C45" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>3280000</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>10552706.91230453</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>3000000</v>
       </c>
-      <c r="B47">
-        <v>1875626.9467353539</v>
-      </c>
-      <c r="C47">
+      <c r="B47" t="n">
+        <v>1875626.946735354</v>
+      </c>
+      <c r="C47" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>2905851</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>3296060.398580174</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>2905851</v>
       </c>
-      <c r="B49">
-        <v>3868677.4013469149</v>
-      </c>
-      <c r="C49">
+      <c r="B49" t="n">
+        <v>3868677.401346915</v>
+      </c>
+      <c r="C49" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>2905851</v>
       </c>
-      <c r="B50">
-        <v>3488507.0527571999</v>
-      </c>
-      <c r="C50">
+      <c r="B50" t="n">
+        <v>3488507.0527572</v>
+      </c>
+      <c r="C50" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>2905851</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>1569461.815090084</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>2905851</v>
       </c>
-      <c r="B52">
-        <v>7037927.5468258923</v>
-      </c>
-      <c r="C52">
+      <c r="B52" t="n">
+        <v>7037927.546825892</v>
+      </c>
+      <c r="C52" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>2905851</v>
       </c>
-      <c r="B53">
-        <v>4860828.8410577634</v>
-      </c>
-      <c r="C53">
+      <c r="B53" t="n">
+        <v>4860828.841057763</v>
+      </c>
+      <c r="C53" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>2905851</v>
       </c>
-      <c r="B54">
-        <v>2535370.5292313392</v>
-      </c>
-      <c r="C54">
+      <c r="B54" t="n">
+        <v>2535370.529231339</v>
+      </c>
+      <c r="C54" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>2905851</v>
       </c>
-      <c r="B55">
-        <v>3995517.2415999561</v>
-      </c>
-      <c r="C55">
+      <c r="B55" t="n">
+        <v>3995517.241599956</v>
+      </c>
+      <c r="C55" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>2905851</v>
       </c>
-      <c r="B56">
-        <v>4585629.3947464256</v>
-      </c>
-      <c r="C56">
+      <c r="B56" t="n">
+        <v>4585629.394746426</v>
+      </c>
+      <c r="C56" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>2905851</v>
       </c>
-      <c r="B57">
-        <v>18644048.512322169</v>
-      </c>
-      <c r="C57">
+      <c r="B57" t="n">
+        <v>18644048.51232217</v>
+      </c>
+      <c r="C57" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>2905851</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>550718.4776402358</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>2900000</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>1827515.283191097</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>2641682</v>
       </c>
-      <c r="B60">
-        <v>3523497.3535166602</v>
-      </c>
-      <c r="C60">
+      <c r="B60" t="n">
+        <v>3523497.35351666</v>
+      </c>
+      <c r="C60" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>2641682</v>
       </c>
-      <c r="B61">
-        <v>2732190.9710032968</v>
-      </c>
-      <c r="C61">
+      <c r="B61" t="n">
+        <v>2732190.971003297</v>
+      </c>
+      <c r="C61" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>2628597</v>
       </c>
-      <c r="B62">
-        <v>341125.84525288548</v>
-      </c>
-      <c r="C62">
+      <c r="B62" t="n">
+        <v>341125.8452528855</v>
+      </c>
+      <c r="C62" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>2628597</v>
       </c>
-      <c r="B63">
-        <v>2749686.1213830272</v>
-      </c>
-      <c r="C63">
+      <c r="B63" t="n">
+        <v>2749686.121383027</v>
+      </c>
+      <c r="C63" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>2628597</v>
       </c>
-      <c r="B64">
-        <v>3401031.3008585521</v>
-      </c>
-      <c r="C64">
+      <c r="B64" t="n">
+        <v>3401031.300858552</v>
+      </c>
+      <c r="C64" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>2611758</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>2264544.870514933</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>2463490</v>
       </c>
-      <c r="B66">
-        <v>4113609.5066631311</v>
-      </c>
-      <c r="C66">
+      <c r="B66" t="n">
+        <v>4113609.506663131</v>
+      </c>
+      <c r="C66" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>2463490</v>
       </c>
-      <c r="B67">
-        <v>2876525.9616360669</v>
-      </c>
-      <c r="C67">
+      <c r="B67" t="n">
+        <v>2876525.961636067</v>
+      </c>
+      <c r="C67" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>2442525</v>
       </c>
-      <c r="B68">
-        <v>2972749.2887245798</v>
-      </c>
-      <c r="C68">
+      <c r="B68" t="n">
+        <v>2972749.28872458</v>
+      </c>
+      <c r="C68" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>2298385</v>
       </c>
-      <c r="B69">
-        <v>4166094.9578023199</v>
-      </c>
-      <c r="C69">
+      <c r="B69" t="n">
+        <v>4166094.95780232</v>
+      </c>
+      <c r="C69" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>2298385</v>
       </c>
-      <c r="B70">
-        <v>992471.02472841041</v>
-      </c>
-      <c r="C70">
+      <c r="B70" t="n">
+        <v>992471.0247284104</v>
+      </c>
+      <c r="C70" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>2298385</v>
       </c>
-      <c r="B71">
-        <v>2797797.7849272829</v>
-      </c>
-      <c r="C71">
+      <c r="B71" t="n">
+        <v>2797797.784927283</v>
+      </c>
+      <c r="C71" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>2298385</v>
       </c>
-      <c r="B72">
-        <v>5534392.1306773564</v>
-      </c>
-      <c r="C72">
+      <c r="B72" t="n">
+        <v>5534392.130677356</v>
+      </c>
+      <c r="C72" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>2273291</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>3615346.893010241</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>2273291</v>
       </c>
-      <c r="B74">
-        <v>4279813.4352705628</v>
-      </c>
-      <c r="C74">
+      <c r="B74" t="n">
+        <v>4279813.435270563</v>
+      </c>
+      <c r="C74" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>2271775</v>
       </c>
-      <c r="B75">
-        <v>3689701.2821240919</v>
-      </c>
-      <c r="C75">
+      <c r="B75" t="n">
+        <v>3689701.282124092</v>
+      </c>
+      <c r="C75" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>2200000</v>
       </c>
-      <c r="B76">
-        <v>4441643.5762830619</v>
-      </c>
-      <c r="C76">
+      <c r="B76" t="n">
+        <v>4441643.576283062</v>
+      </c>
+      <c r="C76" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>2187500</v>
       </c>
-      <c r="B77">
-        <v>5700596.0592847876</v>
-      </c>
-      <c r="C77">
+      <c r="B77" t="n">
+        <v>5700596.059284788</v>
+      </c>
+      <c r="C77" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>2169972</v>
       </c>
-      <c r="B78">
-        <v>8087287.3974402677</v>
-      </c>
-      <c r="C78">
+      <c r="B78" t="n">
+        <v>8087287.397440268</v>
+      </c>
+      <c r="C78" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>2133278</v>
       </c>
-      <c r="B79">
-        <v>3492880.8403521329</v>
-      </c>
-      <c r="C79">
+      <c r="B79" t="n">
+        <v>3492880.840352133</v>
+      </c>
+      <c r="C79" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>2133278</v>
       </c>
-      <c r="B80">
-        <v>4314803.7360300217</v>
-      </c>
-      <c r="C80">
+      <c r="B80" t="n">
+        <v>4314803.736030022</v>
+      </c>
+      <c r="C80" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>2133278</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>4187963.895776982</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>2133278</v>
       </c>
-      <c r="B82">
-        <v>1149927.3781459769</v>
-      </c>
-      <c r="C82">
+      <c r="B82" t="n">
+        <v>1149927.378145977</v>
+      </c>
+      <c r="C82" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>2133278</v>
       </c>
-      <c r="B83">
-        <v>3090841.5537877548</v>
-      </c>
-      <c r="C83">
+      <c r="B83" t="n">
+        <v>3090841.553787755</v>
+      </c>
+      <c r="C83" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>1984359</v>
       </c>
-      <c r="B84">
-        <v>-56539.653716559522</v>
-      </c>
-      <c r="C84">
+      <c r="B84" t="n">
+        <v>-56539.65371655952</v>
+      </c>
+      <c r="C84" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>1984359</v>
       </c>
-      <c r="B85">
-        <v>3610973.1054153079</v>
-      </c>
-      <c r="C85">
+      <c r="B85" t="n">
+        <v>3610973.105415308</v>
+      </c>
+      <c r="C85" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>1968185</v>
       </c>
-      <c r="B86">
-        <v>5066746.0301889926</v>
-      </c>
-      <c r="C86">
+      <c r="B86" t="n">
+        <v>5066746.030188993</v>
+      </c>
+      <c r="C86" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>1968175</v>
       </c>
-      <c r="B87">
-        <v>5027381.9418346006</v>
-      </c>
-      <c r="C87">
+      <c r="B87" t="n">
+        <v>5027381.941834601</v>
+      </c>
+      <c r="C87" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>1968175</v>
       </c>
-      <c r="B88">
-        <v>4301682.3732452244</v>
-      </c>
-      <c r="C88">
+      <c r="B88" t="n">
+        <v>4301682.373245224</v>
+      </c>
+      <c r="C88" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>1968175</v>
       </c>
-      <c r="B89">
-        <v>5538765.9182722894</v>
-      </c>
-      <c r="C89">
+      <c r="B89" t="n">
+        <v>5538765.918272289</v>
+      </c>
+      <c r="C89" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>1968175</v>
       </c>
-      <c r="B90">
-        <v>3619720.6806051731</v>
-      </c>
-      <c r="C90">
+      <c r="B90" t="n">
+        <v>3619720.680605173</v>
+      </c>
+      <c r="C90" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>1968175</v>
       </c>
-      <c r="B91">
-        <v>4214206.6213465761</v>
-      </c>
-      <c r="C91">
+      <c r="B91" t="n">
+        <v>4214206.621346576</v>
+      </c>
+      <c r="C91" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>1968175</v>
       </c>
-      <c r="B92">
-        <v>3042729.8902434991</v>
-      </c>
-      <c r="C92">
+      <c r="B92" t="n">
+        <v>3042729.890243499</v>
+      </c>
+      <c r="C92" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>1916664</v>
       </c>
-      <c r="B93">
-        <v>3492880.8403521329</v>
-      </c>
-      <c r="C93">
+      <c r="B93" t="n">
+        <v>3492880.840352133</v>
+      </c>
+      <c r="C93" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>1916664</v>
       </c>
-      <c r="B94">
-        <v>6260091.6992667327</v>
-      </c>
-      <c r="C94">
+      <c r="B94" t="n">
+        <v>6260091.699266733</v>
+      </c>
+      <c r="C94" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>1902133</v>
       </c>
-      <c r="B95">
-        <v>5075493.6053788578</v>
-      </c>
-      <c r="C95">
+      <c r="B95" t="n">
+        <v>5075493.605378858</v>
+      </c>
+      <c r="C95" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>1902133</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>-2675041.734403457</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>1902133</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>3514749.778326795</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>1902133</v>
       </c>
-      <c r="B98">
-        <v>3663458.5565544972</v>
-      </c>
-      <c r="C98">
+      <c r="B98" t="n">
+        <v>3663458.556554497</v>
+      </c>
+      <c r="C98" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>1902133</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>2920263.837585391</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>1902133</v>
       </c>
-      <c r="B100">
-        <v>1783777.4072417731</v>
-      </c>
-      <c r="C100">
+      <c r="B100" t="n">
+        <v>1783777.407241773</v>
+      </c>
+      <c r="C100" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>1886069</v>
       </c>
-      <c r="B101">
-        <v>4393531.9127388056</v>
-      </c>
-      <c r="C101">
+      <c r="B101" t="n">
+        <v>4393531.912738806</v>
+      </c>
+      <c r="C101" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="102">
+      <c r="A102" t="n">
         <v>1886069</v>
       </c>
-      <c r="B102">
-        <v>-751622.70914140902</v>
-      </c>
-      <c r="C102">
+      <c r="B102" t="n">
+        <v>-751622.709141409</v>
+      </c>
+      <c r="C102" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" t="n">
         <v>1836090</v>
       </c>
-      <c r="B103">
-        <v>634169.61411335738</v>
-      </c>
-      <c r="C103">
+      <c r="B103" t="n">
+        <v>634169.6141133574</v>
+      </c>
+      <c r="C103" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="104">
+      <c r="A104" t="n">
         <v>1836090</v>
       </c>
-      <c r="B104">
-        <v>3619720.6806051731</v>
-      </c>
-      <c r="C104">
+      <c r="B104" t="n">
+        <v>3619720.680605173</v>
+      </c>
+      <c r="C104" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="105">
+      <c r="A105" t="n">
         <v>1836090</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>3654710.981364632</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" t="n">
         <v>1836090</v>
       </c>
-      <c r="B106">
-        <v>6330072.3007856514</v>
-      </c>
-      <c r="C106">
+      <c r="B106" t="n">
+        <v>6330072.300785651</v>
+      </c>
+      <c r="C106" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" t="n">
         <v>1836090</v>
       </c>
-      <c r="B107">
-        <v>3147700.7925218772</v>
-      </c>
-      <c r="C107">
+      <c r="B107" t="n">
+        <v>3147700.792521877</v>
+      </c>
+      <c r="C107" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="108">
+      <c r="A108" t="n">
         <v>1836090</v>
       </c>
-      <c r="B108">
-        <v>3689701.2821240919</v>
-      </c>
-      <c r="C108">
+      <c r="B108" t="n">
+        <v>3689701.282124092</v>
+      </c>
+      <c r="C108" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="109">
+      <c r="A109" t="n">
         <v>1836090</v>
       </c>
-      <c r="B109">
-        <v>520451.13664511498</v>
-      </c>
-      <c r="C109">
+      <c r="B109" t="n">
+        <v>520451.136645115</v>
+      </c>
+      <c r="C109" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="110">
+      <c r="A110" t="n">
         <v>1836090</v>
       </c>
-      <c r="B110">
-        <v>3715944.0076936861</v>
-      </c>
-      <c r="C110">
+      <c r="B110" t="n">
+        <v>3715944.007693686</v>
+      </c>
+      <c r="C110" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="111">
+      <c r="A111" t="n">
         <v>1836090</v>
       </c>
-      <c r="B111">
-        <v>3825288.6975669959</v>
-      </c>
-      <c r="C111">
+      <c r="B111" t="n">
+        <v>3825288.697566996</v>
+      </c>
+      <c r="C111" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="112">
+      <c r="A112" t="n">
         <v>1836090</v>
       </c>
-      <c r="B112">
-        <v>3055851.2530282959</v>
-      </c>
-      <c r="C112">
+      <c r="B112" t="n">
+        <v>3055851.253028296</v>
+      </c>
+      <c r="C112" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="113">
+      <c r="A113" t="n">
         <v>1836090</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>3414152.663643349</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="114">
+      <c r="A114" t="n">
         <v>1782931</v>
       </c>
-      <c r="B114">
-        <v>3838410.0603517941</v>
-      </c>
-      <c r="C114">
+      <c r="B114" t="n">
+        <v>3838410.060351794</v>
+      </c>
+      <c r="C114" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="115">
+      <c r="A115" t="n">
         <v>1782931</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>3873400.361111253</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="116">
+      <c r="A116" t="n">
         <v>1637966</v>
       </c>
-      <c r="B116">
-        <v>3589104.1674406459</v>
-      </c>
-      <c r="C116">
+      <c r="B116" t="n">
+        <v>3589104.167440646</v>
+      </c>
+      <c r="C116" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="117">
+      <c r="A117" t="n">
         <v>1637966</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>3750934.308453145</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="118">
+      <c r="A118" t="n">
         <v>1637966</v>
       </c>
-      <c r="B118">
-        <v>3073346.4034080259</v>
-      </c>
-      <c r="C118">
+      <c r="B118" t="n">
+        <v>3073346.403408026</v>
+      </c>
+      <c r="C118" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="119">
+      <c r="A119" t="n">
         <v>1637966</v>
       </c>
-      <c r="B119">
-        <v>3519123.5659217271</v>
-      </c>
-      <c r="C119">
+      <c r="B119" t="n">
+        <v>3519123.565921727</v>
+      </c>
+      <c r="C119" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="120">
+      <c r="A120" t="n">
         <v>1637966</v>
       </c>
-      <c r="B120">
-        <v>3226428.9692306598</v>
-      </c>
-      <c r="C120">
+      <c r="B120" t="n">
+        <v>3226428.96923066</v>
+      </c>
+      <c r="C120" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="121">
+      <c r="A121" t="n">
         <v>1637966</v>
       </c>
-      <c r="B121">
-        <v>3680953.7069342271</v>
-      </c>
-      <c r="C121">
+      <c r="B121" t="n">
+        <v>3680953.706934227</v>
+      </c>
+      <c r="C121" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="122">
+      <c r="A122" t="n">
         <v>1637966</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>4485381.452232386</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="123">
+      <c r="A123" t="n">
         <v>1637966</v>
       </c>
-      <c r="B123">
-        <v>2456991.5246919598</v>
-      </c>
-      <c r="C123">
+      <c r="B123" t="n">
+        <v>2456991.52469196</v>
+      </c>
+      <c r="C123" t="n">
         <v>122</v>
       </c>
     </row>
